--- a/Web App/res/Booking.xlsx
+++ b/Web App/res/Booking.xlsx
@@ -161,7 +161,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Web App/res/Booking.xlsx
+++ b/Web App/res/Booking.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Pickup</t>
   </si>
   <si>
+    <t xml:space="preserve">Shishir</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thrivikram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shishir</t>
   </si>
   <si>
     <t xml:space="preserve">Shashank</t>
@@ -161,7 +161,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="5:5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -217,30 +217,30 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.729166666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.5625</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,10 +251,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.895833333333333</v>
+        <v>0.1875</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
